--- a/biology/Médecine/Sham_(chirurgie)/Sham_(chirurgie).xlsx
+++ b/biology/Médecine/Sham_(chirurgie)/Sham_(chirurgie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie expérimentale, une opération sham désigne une chirurgie dont on n'a pas pratiqué la procédure censée être thérapeutique.
-Ainsi, pour tester l'efficacité d'une nouvelle stratégie chirurgicale, il n'est pas toujours pertinent de comparer les résultats entre le groupe test (procédure complète) et un groupe qui n'a subi aucune opération : on préfère quand c'est possible utiliser une procédure chirurgicale sans effectuer l'étape nouvelle. Au-delà de l'effet placebo, il est ainsi possible de prendre en compte l'effet non-spécifique de l'opération (incision, ligatures, mouvements, etc.) qui peuvent avoir des répercussions sur la santé de l'individu opéré. Ce type d'opération est couramment utilisé en recherche afin d'éviter de valider à tort une procédure qui ne serait pas efficace[1].
+Ainsi, pour tester l'efficacité d'une nouvelle stratégie chirurgicale, il n'est pas toujours pertinent de comparer les résultats entre le groupe test (procédure complète) et un groupe qui n'a subi aucune opération : on préfère quand c'est possible utiliser une procédure chirurgicale sans effectuer l'étape nouvelle. Au-delà de l'effet placebo, il est ainsi possible de prendre en compte l'effet non-spécifique de l'opération (incision, ligatures, mouvements, etc.) qui peuvent avoir des répercussions sur la santé de l'individu opéré. Ce type d'opération est couramment utilisé en recherche afin d'éviter de valider à tort une procédure qui ne serait pas efficace.
 </t>
         </is>
       </c>
